--- a/covid19/data_covid19_lab_by_time_2021-01-06.xlsx
+++ b/covid19/data_covid19_lab_by_time_2021-01-06.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O317"/>
+  <dimension ref="A1:O318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2750,13 +2750,13 @@
         <v>43922</v>
       </c>
       <c r="M39">
-        <v>3718</v>
+        <v>3720</v>
       </c>
       <c r="N39">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O39">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="40">
@@ -3848,13 +3848,13 @@
         <v>43940</v>
       </c>
       <c r="M57">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="N57">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="58">
@@ -4336,10 +4336,10 @@
         <v>43948</v>
       </c>
       <c r="M65">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="N65">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O65">
         <v>2.3</v>
@@ -4763,10 +4763,10 @@
         <v>43955</v>
       </c>
       <c r="M72">
-        <v>4677</v>
+        <v>4676</v>
       </c>
       <c r="N72">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O72">
         <v>1.1</v>
@@ -5007,10 +5007,10 @@
         <v>43959</v>
       </c>
       <c r="M76">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="N76">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O76">
         <v>1.2</v>
@@ -5129,13 +5129,13 @@
         <v>43961</v>
       </c>
       <c r="M78">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O78">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="79">
@@ -6227,10 +6227,10 @@
         <v>43979</v>
       </c>
       <c r="M96">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="N96">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O96">
         <v>0.6</v>
@@ -6532,13 +6532,13 @@
         <v>43984</v>
       </c>
       <c r="M101">
-        <v>3807</v>
+        <v>3809</v>
       </c>
       <c r="N101">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="102">
@@ -7996,13 +7996,13 @@
         <v>44008</v>
       </c>
       <c r="M125">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="N125">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O125">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="126">
@@ -8179,10 +8179,10 @@
         <v>44011</v>
       </c>
       <c r="M128">
-        <v>5912</v>
+        <v>5911</v>
       </c>
       <c r="N128">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O128">
         <v>0.4</v>
@@ -11046,10 +11046,10 @@
         <v>44058</v>
       </c>
       <c r="M175">
-        <v>5984</v>
+        <v>5983</v>
       </c>
       <c r="N175">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O175">
         <v>0.7</v>
@@ -11656,10 +11656,10 @@
         <v>44068</v>
       </c>
       <c r="M185">
-        <v>19347</v>
+        <v>19346</v>
       </c>
       <c r="N185">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O185">
         <v>0.2</v>
@@ -12449,10 +12449,10 @@
         <v>44081</v>
       </c>
       <c r="M198">
-        <v>20902</v>
+        <v>20903</v>
       </c>
       <c r="N198">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O198">
         <v>0.6</v>
@@ -14401,10 +14401,10 @@
         <v>44113</v>
       </c>
       <c r="M230">
-        <v>12676</v>
+        <v>12675</v>
       </c>
       <c r="N230">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O230">
         <v>1.1</v>
@@ -14462,13 +14462,13 @@
         <v>44114</v>
       </c>
       <c r="M231">
-        <v>5868</v>
+        <v>5867</v>
       </c>
       <c r="N231">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O231">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="232">
@@ -14767,10 +14767,10 @@
         <v>44119</v>
       </c>
       <c r="M236">
-        <v>13720</v>
+        <v>13721</v>
       </c>
       <c r="N236">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O236">
         <v>1</v>
@@ -15194,10 +15194,10 @@
         <v>44126</v>
       </c>
       <c r="M243">
-        <v>15396</v>
+        <v>15397</v>
       </c>
       <c r="N243">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O243">
         <v>1.7</v>
@@ -15621,10 +15621,10 @@
         <v>44133</v>
       </c>
       <c r="M250">
-        <v>20691</v>
+        <v>20689</v>
       </c>
       <c r="N250">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O250">
         <v>2</v>
@@ -15682,10 +15682,10 @@
         <v>44134</v>
       </c>
       <c r="M251">
-        <v>20126</v>
+        <v>20125</v>
       </c>
       <c r="N251">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O251">
         <v>2.9</v>
@@ -15926,10 +15926,10 @@
         <v>44138</v>
       </c>
       <c r="M255">
-        <v>26701</v>
+        <v>26700</v>
       </c>
       <c r="N255">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O255">
         <v>2.4</v>
@@ -16048,10 +16048,10 @@
         <v>44140</v>
       </c>
       <c r="M257">
-        <v>27311</v>
+        <v>27310</v>
       </c>
       <c r="N257">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O257">
         <v>2</v>
@@ -16353,10 +16353,10 @@
         <v>44145</v>
       </c>
       <c r="M262">
-        <v>25139</v>
+        <v>25140</v>
       </c>
       <c r="N262">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O262">
         <v>2.2</v>
@@ -16536,10 +16536,10 @@
         <v>44148</v>
       </c>
       <c r="M265">
-        <v>21510</v>
+        <v>21511</v>
       </c>
       <c r="N265">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O265">
         <v>3</v>
@@ -16783,7 +16783,7 @@
         <v>21236</v>
       </c>
       <c r="N269">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O269">
         <v>2.7</v>
@@ -17024,10 +17024,10 @@
         <v>44156</v>
       </c>
       <c r="M273">
-        <v>8030</v>
+        <v>8029</v>
       </c>
       <c r="N273">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O273">
         <v>3.4</v>
@@ -17146,7 +17146,7 @@
         <v>44158</v>
       </c>
       <c r="M275">
-        <v>25210</v>
+        <v>25209</v>
       </c>
       <c r="N275">
         <v>567</v>
@@ -17268,10 +17268,10 @@
         <v>44160</v>
       </c>
       <c r="M277">
-        <v>18943</v>
+        <v>18942</v>
       </c>
       <c r="N277">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O277">
         <v>2.5</v>
@@ -17756,10 +17756,10 @@
         <v>44168</v>
       </c>
       <c r="M285">
-        <v>17209</v>
+        <v>17210</v>
       </c>
       <c r="N285">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O285">
         <v>2.1</v>
@@ -17817,7 +17817,7 @@
         <v>44169</v>
       </c>
       <c r="M286">
-        <v>15350</v>
+        <v>15353</v>
       </c>
       <c r="N286">
         <v>358</v>
@@ -18122,10 +18122,10 @@
         <v>44174</v>
       </c>
       <c r="M291">
-        <v>18477</v>
+        <v>18476</v>
       </c>
       <c r="N291">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O291">
         <v>2.3</v>
@@ -18183,10 +18183,10 @@
         <v>44175</v>
       </c>
       <c r="M292">
-        <v>18927</v>
+        <v>18928</v>
       </c>
       <c r="N292">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O292">
         <v>2.1</v>
@@ -18244,10 +18244,10 @@
         <v>44176</v>
       </c>
       <c r="M293">
-        <v>17472</v>
+        <v>17471</v>
       </c>
       <c r="N293">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O293">
         <v>2.1</v>
@@ -18610,10 +18610,10 @@
         <v>44182</v>
       </c>
       <c r="M299">
-        <v>23574</v>
+        <v>23573</v>
       </c>
       <c r="N299">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O299">
         <v>1.6</v>
@@ -18915,10 +18915,10 @@
         <v>44187</v>
       </c>
       <c r="M304">
-        <v>26057</v>
+        <v>26058</v>
       </c>
       <c r="N304">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O304">
         <v>1.9</v>
@@ -19037,10 +19037,10 @@
         <v>44189</v>
       </c>
       <c r="M306">
-        <v>5830</v>
+        <v>5829</v>
       </c>
       <c r="N306">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O306">
         <v>4.5</v>
@@ -19281,10 +19281,10 @@
         <v>44193</v>
       </c>
       <c r="M310">
-        <v>21048</v>
+        <v>21067</v>
       </c>
       <c r="N310">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="O310">
         <v>3.3</v>
@@ -19342,10 +19342,10 @@
         <v>44194</v>
       </c>
       <c r="M311">
-        <v>18674</v>
+        <v>18692</v>
       </c>
       <c r="N311">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O311">
         <v>3.4</v>
@@ -19403,7 +19403,7 @@
         <v>44195</v>
       </c>
       <c r="M312">
-        <v>18508</v>
+        <v>18537</v>
       </c>
       <c r="N312">
         <v>590</v>
@@ -19464,7 +19464,7 @@
         <v>44196</v>
       </c>
       <c r="M313">
-        <v>8657</v>
+        <v>8680</v>
       </c>
       <c r="N313">
         <v>384</v>
@@ -19525,10 +19525,10 @@
         <v>44197</v>
       </c>
       <c r="M314">
-        <v>6877</v>
+        <v>6936</v>
       </c>
       <c r="N314">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O314">
         <v>4.3</v>
@@ -19586,13 +19586,13 @@
         <v>44198</v>
       </c>
       <c r="M315">
-        <v>14526</v>
+        <v>14820</v>
       </c>
       <c r="N315">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="O315">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -19647,13 +19647,13 @@
         <v>44199</v>
       </c>
       <c r="M316">
-        <v>11507</v>
+        <v>14742</v>
       </c>
       <c r="N316">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="O316">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="317">
@@ -19708,13 +19708,74 @@
         <v>44200</v>
       </c>
       <c r="M317">
-        <v>4423</v>
+        <v>29861</v>
       </c>
       <c r="N317">
-        <v>69</v>
+        <v>621</v>
       </c>
       <c r="O317">
-        <v>1.5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D318">
+        <v>2020</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G318">
+        <v>2021</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>2020/2021</t>
+        </is>
+      </c>
+      <c r="K318">
+        <v>24</v>
+      </c>
+      <c r="L318" s="2">
+        <v>44201</v>
+      </c>
+      <c r="M318">
+        <v>4124</v>
+      </c>
+      <c r="N318">
+        <v>65</v>
+      </c>
+      <c r="O318">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
